--- a/biology/Médecine/Info_Service/Info_Service.xlsx
+++ b/biology/Médecine/Info_Service/Info_Service.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs Services d'écoute, Permanences téléphoniques ou hotlines téléphoniques ou chats ou clavardages, ou d'appui psychosocial, ont été mis en place, pour des situations de difficultés ressenties, de questionnement de crainte, de souffrance, de solitude, d'envie d'en finir, de suicide, de dépendance, d'usage de produits .. Parfois valorisés par l'appellation Info Service. Ils participent de la médecine préventive aussi.
 Addictions Drogues Alcool Info Service décliné en :
@@ -504,8 +516,8 @@
 Tabac info service : https://www.tabac-info-service.fr/
 e-Enfance 3018
 Écoute Pédophiles : 📞 0 806 23 10 63 en lien avec les CRIAVS.
-📞 3020[1] numéro vert national : Non au harcèlement à l’école
-📞 3018[2] numéro vert national : jeunes victimes de violences numériques et site e-enfance avec chat ou clavardage[3]
+📞 3020 numéro vert national : Non au harcèlement à l’école
+📞 3018 numéro vert national : jeunes victimes de violences numériques et site e-enfance avec chat ou clavardage
 </t>
         </is>
       </c>
@@ -534,7 +546,9 @@
           <t>Sous listes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jeunes Alcool Info Service : http://jeunes.alcool-info-service.fr/</t>
         </is>
@@ -564,7 +578,9 @@
           <t>Outils</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Formés à écoute active
 Bienveillance, anonymat</t>
@@ -595,7 +611,9 @@
           <t>Espaces pro rattachés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://pro.tabac-info-service.fr/
 https://vaccination-info-service.fr/ et https://professionnels.vaccination-info-service.fr/</t>
@@ -626,7 +644,9 @@
           <t>évaluation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De multiples travaux d'évaluation travaillent sur leur acceptabilité et efficacité par exemple sur Cairn.info.
 </t>
@@ -657,7 +677,9 @@
           <t>Lire écouter voir</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des aides en ligne contre le suicide
 Télé-psychologie
